--- a/final_data/update_datasheet.xlsx
+++ b/final_data/update_datasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudychin/gdrive/cmu/18-743/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afinci/Documents/GitHub/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>resnet, jpeg</t>
   </si>
@@ -167,57 +167,21 @@
     <t>AlexNet (L)</t>
   </si>
   <si>
-    <t>jpeg,bitcount,bitcount</t>
-  </si>
-  <si>
     <t>(H-M-L)</t>
   </si>
   <si>
     <t>ss,ss,ss</t>
   </si>
   <si>
-    <t>bitcount,jpeg,jpeg</t>
-  </si>
-  <si>
-    <t>bitcount, ss, ss</t>
-  </si>
-  <si>
-    <t>bitcount,ss,bitcount</t>
-  </si>
-  <si>
-    <t>bitcount,bitcount,ss</t>
-  </si>
-  <si>
     <t>bc,bc,ss</t>
   </si>
   <si>
-    <t>bc,jpeg,bc</t>
-  </si>
-  <si>
-    <t>ss,ss,jpeg</t>
-  </si>
-  <si>
-    <t>jpeg,jpeg,ss</t>
-  </si>
-  <si>
     <t>ss,ss,bc</t>
   </si>
   <si>
-    <t>jpeg,jpeg,jpeg</t>
-  </si>
-  <si>
     <t>bc,bc,bc</t>
   </si>
   <si>
-    <t>bc,jpeg,ss</t>
-  </si>
-  <si>
-    <t>ss,jpeg,ss</t>
-  </si>
-  <si>
-    <t>bc,ss,bc</t>
-  </si>
-  <si>
     <t>jpeg,ss,bc</t>
   </si>
   <si>
@@ -233,12 +197,6 @@
     <t>f for AlexNet</t>
   </si>
   <si>
-    <t>bitcount,bitcount,bitcount</t>
-  </si>
-  <si>
-    <t>ss jpeg, jpeg</t>
-  </si>
-  <si>
     <t>jpeg</t>
   </si>
   <si>
@@ -246,6 +204,99 @@
   </si>
   <si>
     <t>stringsearch</t>
+  </si>
+  <si>
+    <t>ss,bc,bc</t>
+  </si>
+  <si>
+    <t>ss,jpeg,jpeg</t>
+  </si>
+  <si>
+    <t>ss,jpeg-bc-ss,jpeg-bc-ss</t>
+  </si>
+  <si>
+    <t>ss,jpeg,bc</t>
+  </si>
+  <si>
+    <t>ss,bc,ss</t>
+  </si>
+  <si>
+    <t>bc,ss,jpeg</t>
+  </si>
+  <si>
+    <t>ss,jpeg,jpeg-bc-ss</t>
+  </si>
+  <si>
+    <t>bc-ss,jpeg,jpeg-bc-ss</t>
+  </si>
+  <si>
+    <t>bc,jpeg,jpeg</t>
+  </si>
+  <si>
+    <t>jpeg-ss,jpeg-ss,ss</t>
+  </si>
+  <si>
+    <t>jpeg,jpeg-bc-ss,jpeg-bc-ss</t>
+  </si>
+  <si>
+    <t>jpeg-bc,jpeg-ss,bc</t>
+  </si>
+  <si>
+    <t>jpeg,bc-ss,jpeg-bc-ss</t>
+  </si>
+  <si>
+    <t>bc,bc,bc-ss</t>
+  </si>
+  <si>
+    <t>ss,bc,jpeg</t>
+  </si>
+  <si>
+    <t>bc-ss,jpeg-ss,bc-ss</t>
+  </si>
+  <si>
+    <t>jpeg-bc-ss,jpeg-bc-ss,jpeg-bc-ss</t>
+  </si>
+  <si>
+    <t>jpeg,bc,bc</t>
+  </si>
+  <si>
+    <t>jpeg,ss,jpeg-bc-ss</t>
+  </si>
+  <si>
+    <t>jpeg-bc,jpeg-bc-ss,jpeg-bc</t>
+  </si>
+  <si>
+    <t>bc,bc,</t>
+  </si>
+  <si>
+    <t>jpeg-bc-ss,jpeg-bc-ss,</t>
+  </si>
+  <si>
+    <t>jpeg-bc-ss,bc-ss,</t>
+  </si>
+  <si>
+    <t>ss,bc</t>
+  </si>
+  <si>
+    <t>ss,ss,</t>
+  </si>
+  <si>
+    <t>jpeg,jpeg,</t>
+  </si>
+  <si>
+    <t>jpeg-bc-ss,jpeg-bc,</t>
+  </si>
+  <si>
+    <t>bc,ss,</t>
+  </si>
+  <si>
+    <t>jpeg,ss,</t>
+  </si>
+  <si>
+    <t>ss,jpeg,</t>
+  </si>
+  <si>
+    <t>bc,jpeg-bc-ss,</t>
   </si>
 </sst>
 </file>
@@ -367,7 +418,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,6 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -591,13 +643,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,13 +762,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,13 +881,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>11.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,11 +904,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1790571792"/>
-        <c:axId val="-1790568960"/>
+        <c:axId val="433157392"/>
+        <c:axId val="433160224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1790571792"/>
+        <c:axId val="433157392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790568960"/>
+        <c:crossAx val="433160224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -907,7 +959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1790568960"/>
+        <c:axId val="433160224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +1010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790571792"/>
+        <c:crossAx val="433157392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1228,13 +1280,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,10 +1406,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -1494,13 +1546,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,11 +1569,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1790529216"/>
-        <c:axId val="-1790525952"/>
+        <c:axId val="433197008"/>
+        <c:axId val="433200272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1790529216"/>
+        <c:axId val="433197008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790525952"/>
+        <c:crossAx val="433200272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1572,7 +1624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1790525952"/>
+        <c:axId val="433200272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790529216"/>
+        <c:crossAx val="433197008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1893,13 +1945,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,13 +2071,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,13 +2211,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,11 +2234,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1790505456"/>
-        <c:axId val="-1790502192"/>
+        <c:axId val="432293392"/>
+        <c:axId val="432296656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1790505456"/>
+        <c:axId val="432293392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790502192"/>
+        <c:crossAx val="432296656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1790502192"/>
+        <c:axId val="432296656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790505456"/>
+        <c:crossAx val="432293392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2558,13 +2610,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,10 +2729,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -2796,13 +2848,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,11 +2871,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1790465712"/>
-        <c:axId val="-1790462448"/>
+        <c:axId val="433226272"/>
+        <c:axId val="433229536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1790465712"/>
+        <c:axId val="433226272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +2918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790462448"/>
+        <c:crossAx val="433229536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2874,7 +2926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1790462448"/>
+        <c:axId val="433229536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790465712"/>
+        <c:crossAx val="433226272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5582,8 +5634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B24" zoomScale="88" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5595,7 +5647,9 @@
     <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="15" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -5894,19 +5948,19 @@
         <v>1650.66666667</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -5985,13 +6039,19 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -6026,10 +6086,16 @@
         <v>48</v>
       </c>
       <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
         <v>69</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6061,13 +6127,19 @@
         <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>89</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6099,13 +6171,19 @@
         <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6137,13 +6215,19 @@
         <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6175,13 +6259,19 @@
         <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>84</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
       </c>
       <c r="P17" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -6213,13 +6303,19 @@
         <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
       </c>
       <c r="P18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -6251,13 +6347,19 @@
         <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
       </c>
       <c r="P19" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -6292,13 +6394,19 @@
         <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
+        <v>87</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -6353,19 +6461,25 @@
         <v>2299.4303797500002</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L22" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M22">
-        <v>6</v>
-      </c>
-      <c r="P22">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="N22">
+        <v>16</v>
+      </c>
+      <c r="O22">
+        <v>16</v>
+      </c>
+      <c r="P22" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -6394,16 +6508,22 @@
         <v>1561.6766917299999</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23" s="4">
+        <v>13</v>
+      </c>
+      <c r="N23" s="4">
+        <v>19</v>
+      </c>
+      <c r="O23" s="4">
+        <v>19</v>
+      </c>
+      <c r="P23">
         <v>5</v>
-      </c>
-      <c r="M23" s="4">
-        <v>12</v>
-      </c>
-      <c r="P23">
-        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -6432,16 +6552,22 @@
         <v>1571.048</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
         <v>11</v>
       </c>
-      <c r="M24">
-        <v>9</v>
-      </c>
-      <c r="P24" s="4">
-        <v>13</v>
+      <c r="N24">
+        <v>18</v>
+      </c>
+      <c r="O24">
+        <v>18</v>
+      </c>
+      <c r="P24" s="12">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -6522,19 +6648,25 @@
         <v>1574.84347826</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L27" s="4">
-        <v>3</v>
-      </c>
-      <c r="M27" s="4">
+        <v>6</v>
+      </c>
+      <c r="M27" s="12">
         <v>4</v>
       </c>
-      <c r="P27">
-        <v>4</v>
+      <c r="N27" s="4">
+        <v>5</v>
+      </c>
+      <c r="O27" s="12">
+        <v>6</v>
+      </c>
+      <c r="P27" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -6563,15 +6695,21 @@
         <v>1575.86324786</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" s="4">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="P28">
+        <v>56</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>5</v>
+      </c>
+      <c r="N28" s="4">
+        <v>5</v>
+      </c>
+      <c r="O28" s="12">
+        <v>6</v>
+      </c>
+      <c r="P28" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6604,16 +6742,22 @@
         <v>2556.8823529400001</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" s="4">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="L29" s="12">
+        <v>2</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
-      <c r="P29" s="4">
+      <c r="N29" s="4">
         <v>5</v>
+      </c>
+      <c r="O29" s="4">
+        <v>7</v>
+      </c>
+      <c r="P29" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -6668,19 +6812,25 @@
         <v>2522.90625</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
         <v>3</v>
       </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
+      <c r="N31" s="12">
+        <v>6</v>
+      </c>
+      <c r="O31" s="12">
+        <v>5</v>
+      </c>
+      <c r="P31" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -6709,16 +6859,22 @@
         <v>1733.5</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="4">
         <v>4</v>
       </c>
+      <c r="N32" s="4">
+        <v>7</v>
+      </c>
+      <c r="O32" s="4">
+        <v>6</v>
+      </c>
       <c r="P32" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -6747,16 +6903,22 @@
         <v>1737.21428571</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="L33" s="4">
-        <v>6</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="P33">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="M33" s="4">
+        <v>4</v>
+      </c>
+      <c r="N33" s="4">
+        <v>7</v>
+      </c>
+      <c r="O33" s="12">
+        <v>5</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -6811,19 +6973,25 @@
         <v>1739.71428571</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L35" s="4">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
         <v>5</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -6852,15 +7020,21 @@
         <v>1663.8</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36" s="4">
-        <v>6</v>
-      </c>
-      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="N36" s="4">
+        <v>7</v>
+      </c>
+      <c r="O36" s="4">
+        <v>7</v>
+      </c>
+      <c r="P36" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6890,16 +7064,22 @@
         <v>1631.4545454500001</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L37">
-        <v>2</v>
-      </c>
-      <c r="M37">
+        <v>58</v>
+      </c>
+      <c r="L37" s="12">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>4</v>
+      </c>
+      <c r="N37" s="12">
+        <v>6</v>
+      </c>
+      <c r="O37" s="12">
+        <v>6</v>
+      </c>
+      <c r="P37" s="12">
         <v>3</v>
-      </c>
-      <c r="P37" s="4">
-        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">

--- a/final_data/update_datasheet.xlsx
+++ b/final_data/update_datasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afinci/Documents/GitHub/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudychin/gdrive/cmu/18-743/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
   <si>
     <t>resnet, jpeg</t>
   </si>
@@ -298,6 +298,39 @@
   <si>
     <t>bc,jpeg-bc-ss,</t>
   </si>
+  <si>
+    <t>resnet</t>
+  </si>
+  <si>
+    <t>alexnet</t>
+  </si>
+  <si>
+    <t>CPU high</t>
+  </si>
+  <si>
+    <t>CPU mid</t>
+  </si>
+  <si>
+    <t>CPU low</t>
+  </si>
+  <si>
+    <t>Latency Diff (JPEG-BC)</t>
+  </si>
+  <si>
+    <t>googlenet</t>
+  </si>
+  <si>
+    <t>GPU Power (G-R)</t>
+  </si>
+  <si>
+    <t>GPU high</t>
+  </si>
+  <si>
+    <t>GPU mid</t>
+  </si>
+  <si>
+    <t>GPU low</t>
+  </si>
 </sst>
 </file>
 
@@ -904,11 +937,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="433157392"/>
-        <c:axId val="433160224"/>
+        <c:axId val="-1439121456"/>
+        <c:axId val="-1439118192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433157392"/>
+        <c:axId val="-1439121456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433160224"/>
+        <c:crossAx val="-1439118192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -959,7 +992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433160224"/>
+        <c:axId val="-1439118192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433157392"/>
+        <c:crossAx val="-1439121456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1569,11 +1602,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="433197008"/>
-        <c:axId val="433200272"/>
+        <c:axId val="-1439082128"/>
+        <c:axId val="-1439078864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433197008"/>
+        <c:axId val="-1439082128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433200272"/>
+        <c:crossAx val="-1439078864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1624,7 +1657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433200272"/>
+        <c:axId val="-1439078864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433197008"/>
+        <c:crossAx val="-1439082128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2234,11 +2267,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="432293392"/>
-        <c:axId val="432296656"/>
+        <c:axId val="-1439051280"/>
+        <c:axId val="-1439048016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432293392"/>
+        <c:axId val="-1439051280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432296656"/>
+        <c:crossAx val="-1439048016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2289,7 +2322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432296656"/>
+        <c:axId val="-1439048016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432293392"/>
+        <c:crossAx val="-1439051280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2871,11 +2904,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="433226272"/>
-        <c:axId val="433229536"/>
+        <c:axId val="-1437586528"/>
+        <c:axId val="-1437583696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433226272"/>
+        <c:axId val="-1437586528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,7 +2951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433229536"/>
+        <c:crossAx val="-1437583696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2926,7 +2959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433229536"/>
+        <c:axId val="-1437583696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,7 +3010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433226272"/>
+        <c:crossAx val="-1437586528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2991,6 +3024,1344 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Latency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Diff (JPEG-BC)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>resnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$3:$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPU low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.00144424438399998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.016071903706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24644289017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alexnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$3:$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPU low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.00799114704099998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.00130414962800007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.000142359733000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1406403456"/>
+        <c:axId val="-1391876656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1406403456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1391876656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1391876656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1406403456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Latency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of DNN when CPU running Bitcount</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.152957775534713"/>
+          <c:y val="0.0681701067819415"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>resnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$24:$V$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPU low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$25:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.233474850655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.256670105457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.87224545479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>googlenet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$24:$V$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPU low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$26:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.204339504242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.232224154472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.841431045532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alexnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$24:$V$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPU low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$27:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.118788993359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.192865049839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.727959108353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1406501440"/>
+        <c:axId val="-1350961712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1406501440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1350961712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1350961712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1406501440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Power Diff (G-R)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Z$24:$AB$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPU low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$25:$AB$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>689.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>994.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6115.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Z$24:$AB$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPU low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$26:$AB$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>383.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2528.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Z$24:$AB$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPU low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$27:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1356774688"/>
+        <c:axId val="-1438810400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1356774688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1438810400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1438810400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1356774688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3218,6 +4589,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -5206,6 +6697,1515 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5366,6 +8366,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>825694</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542829</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>364452</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>770</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180686</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>694267</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5632,10 +8722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B24" zoomScale="88" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5650,9 +8740,10 @@
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
     <col min="14" max="14" width="28" customWidth="1"/>
     <col min="15" max="15" width="27.83203125" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -5678,7 +8769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -5713,7 +8804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -5747,8 +8838,20 @@
       <c r="N3">
         <v>998</v>
       </c>
+      <c r="S3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -5782,8 +8885,23 @@
       <c r="N4">
         <v>537</v>
       </c>
+      <c r="S4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4">
+        <f>C2-C3</f>
+        <v>1.4442443839999819E-3</v>
+      </c>
+      <c r="U4">
+        <f>C11-C12</f>
+        <v>1.6071903706000035E-2</v>
+      </c>
+      <c r="V4">
+        <f>C20-C21</f>
+        <v>0.24644289016999976</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -5817,8 +8935,23 @@
       <c r="N5">
         <v>76</v>
       </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5">
+        <f>C8-C9</f>
+        <v>7.9911470409999852E-3</v>
+      </c>
+      <c r="U5">
+        <f>C26-C27</f>
+        <v>-1.3041496280000731E-3</v>
+      </c>
+      <c r="V5">
+        <f>C35-C36</f>
+        <v>-1.423597330000026E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -5844,7 +8977,7 @@
         <v>1692.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -5870,7 +9003,7 @@
         <v>1698.75</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -5896,7 +9029,7 @@
         <v>1751.3181818200001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -5922,7 +9055,7 @@
         <v>1608.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -5963,7 +9096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -6010,7 +9143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -6054,7 +9187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -6098,7 +9231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -6142,7 +9275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -6186,7 +9319,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -6230,7 +9363,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -6274,7 +9407,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -6318,7 +9451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -6362,7 +9495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -6409,7 +9542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -6435,7 +9568,7 @@
         <v>2294.2056962000001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -6482,7 +9615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -6526,7 +9659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -6569,8 +9702,32 @@
       <c r="P24" s="12">
         <v>7</v>
       </c>
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" t="s">
+        <v>92</v>
+      </c>
+      <c r="U24" t="s">
+        <v>93</v>
+      </c>
+      <c r="V24" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -6595,8 +9752,35 @@
       <c r="I25">
         <v>1566.2380952399999</v>
       </c>
+      <c r="S25" t="s">
+        <v>90</v>
+      </c>
+      <c r="T25">
+        <v>0.23347485065500001</v>
+      </c>
+      <c r="U25">
+        <v>0.25667010545699998</v>
+      </c>
+      <c r="V25">
+        <v>1.87224545479</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z25">
+        <f>F6-F3</f>
+        <v>689</v>
+      </c>
+      <c r="AA25">
+        <f>F15-F12</f>
+        <v>994</v>
+      </c>
+      <c r="AB25">
+        <f>F24-F21</f>
+        <v>6115</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -6621,8 +9805,35 @@
       <c r="I26">
         <v>1592.672</v>
       </c>
+      <c r="S26" t="s">
+        <v>96</v>
+      </c>
+      <c r="T26">
+        <v>0.20433950424200001</v>
+      </c>
+      <c r="U26">
+        <v>0.23222415447200001</v>
+      </c>
+      <c r="V26">
+        <v>0.84143104553199999</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z26">
+        <f>F33-F30</f>
+        <v>383</v>
+      </c>
+      <c r="AA26">
+        <f>F42-F39</f>
+        <v>384</v>
+      </c>
+      <c r="AB26">
+        <f>F51-F48</f>
+        <v>2528</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>7</v>
       </c>
@@ -6668,8 +9879,35 @@
       <c r="P27" s="4">
         <v>5</v>
       </c>
+      <c r="S27" t="s">
+        <v>91</v>
+      </c>
+      <c r="T27">
+        <v>0.11878899335900001</v>
+      </c>
+      <c r="U27">
+        <v>0.19286504983899999</v>
+      </c>
+      <c r="V27">
+        <v>0.72795910835300004</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z27">
+        <f>F60-F57</f>
+        <v>77</v>
+      </c>
+      <c r="AA27">
+        <f>F69-F66</f>
+        <v>77</v>
+      </c>
+      <c r="AB27">
+        <f>F78-F75</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -6713,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -6760,7 +9998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -6786,7 +10024,7 @@
         <v>2520.2121212100001</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -6833,7 +10071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -8220,6 +11458,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final_data/update_datasheet.xlsx
+++ b/final_data/update_datasheet.xlsx
@@ -937,11 +937,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1439121456"/>
-        <c:axId val="-1439118192"/>
+        <c:axId val="-580882272"/>
+        <c:axId val="-580879008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1439121456"/>
+        <c:axId val="-580882272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439118192"/>
+        <c:crossAx val="-580879008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -992,7 +992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1439118192"/>
+        <c:axId val="-580879008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439121456"/>
+        <c:crossAx val="-580882272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1602,11 +1602,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1439082128"/>
-        <c:axId val="-1439078864"/>
+        <c:axId val="-580859472"/>
+        <c:axId val="-580856208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1439082128"/>
+        <c:axId val="-580859472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439078864"/>
+        <c:crossAx val="-580856208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1657,7 +1657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1439078864"/>
+        <c:axId val="-580856208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439082128"/>
+        <c:crossAx val="-580859472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2267,11 +2267,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1439051280"/>
-        <c:axId val="-1439048016"/>
+        <c:axId val="-580820000"/>
+        <c:axId val="-580816736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1439051280"/>
+        <c:axId val="-580820000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439048016"/>
+        <c:crossAx val="-580816736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2322,7 +2322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1439048016"/>
+        <c:axId val="-580816736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,7 +2373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439051280"/>
+        <c:crossAx val="-580820000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2499,7 +2499,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2600,7 +2599,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2719,7 +2717,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2838,7 +2835,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2904,11 +2900,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1437586528"/>
-        <c:axId val="-1437583696"/>
+        <c:axId val="-580785152"/>
+        <c:axId val="-580781888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1437586528"/>
+        <c:axId val="-580785152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1437583696"/>
+        <c:crossAx val="-580781888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2959,7 +2955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1437583696"/>
+        <c:axId val="-580781888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,7 +3006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1437586528"/>
+        <c:crossAx val="-580785152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3024,7 +3020,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3306,11 +3301,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1406403456"/>
-        <c:axId val="-1391876656"/>
+        <c:axId val="-580752064"/>
+        <c:axId val="-580749312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1406403456"/>
+        <c:axId val="-580752064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1391876656"/>
+        <c:crossAx val="-580749312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3361,7 +3356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1391876656"/>
+        <c:axId val="-580749312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3411,7 +3406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1406403456"/>
+        <c:crossAx val="-580752064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3778,11 +3773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1406501440"/>
-        <c:axId val="-1350961712"/>
+        <c:axId val="-580722752"/>
+        <c:axId val="-580720000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1406501440"/>
+        <c:axId val="-580722752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,7 +3820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350961712"/>
+        <c:crossAx val="-580720000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3833,7 +3828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1350961712"/>
+        <c:axId val="-580720000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,7 +3878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1406501440"/>
+        <c:crossAx val="-580722752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4227,7 +4222,7 @@
                   <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>153.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4243,11 +4238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1356774688"/>
-        <c:axId val="-1438810400"/>
+        <c:axId val="-580692160"/>
+        <c:axId val="-580689408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1356774688"/>
+        <c:axId val="-580692160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4290,7 +4285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1438810400"/>
+        <c:crossAx val="-580689408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4298,7 +4293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1438810400"/>
+        <c:axId val="-580689408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4348,7 +4343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1356774688"/>
+        <c:crossAx val="-580692160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8724,8 +8719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="50" workbookViewId="0">
+      <selection activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9904,7 +9899,7 @@
       </c>
       <c r="AB27">
         <f>F78-F75</f>
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
@@ -11275,160 +11270,321 @@
       <c r="B74" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="C74">
+        <v>2.29579019547</v>
+      </c>
+      <c r="D74">
+        <v>3339</v>
+      </c>
+      <c r="E74" s="2">
+        <v>230</v>
+      </c>
+      <c r="F74" s="2">
+        <v>614</v>
+      </c>
+      <c r="G74" s="2">
+        <v>30</v>
+      </c>
+      <c r="H74" s="2">
+        <v>29</v>
+      </c>
+      <c r="I74">
+        <v>2178.2253968300001</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="C75">
+        <v>2.3294607639299998</v>
+      </c>
+      <c r="D75">
+        <v>3339</v>
+      </c>
+      <c r="E75" s="2">
+        <v>230</v>
+      </c>
+      <c r="F75" s="2">
+        <v>537</v>
+      </c>
+      <c r="G75" s="2">
+        <v>30</v>
+      </c>
+      <c r="H75" s="2">
+        <v>29</v>
+      </c>
+      <c r="I75">
+        <v>2162.4707792200002</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="C76">
+        <v>2.2865547657</v>
+      </c>
+      <c r="D76">
+        <v>3339</v>
+      </c>
+      <c r="E76" s="2">
+        <v>230</v>
+      </c>
+      <c r="F76" s="2">
+        <v>537</v>
+      </c>
+      <c r="G76" s="2">
+        <v>30</v>
+      </c>
+      <c r="H76" s="2">
+        <v>29</v>
+      </c>
+      <c r="I76">
+        <v>2129.5742574300002</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="C77">
+        <v>2.1927281856500001</v>
+      </c>
+      <c r="D77">
+        <v>3416</v>
+      </c>
+      <c r="E77" s="2">
+        <v>230</v>
+      </c>
+      <c r="F77" s="2">
+        <v>690</v>
+      </c>
+      <c r="G77" s="2">
+        <v>30</v>
+      </c>
+      <c r="H77" s="2">
+        <v>29</v>
+      </c>
+      <c r="I77">
+        <v>1512.8676470600001</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>4</v>
       </c>
+      <c r="C78">
+        <v>2.1967823982199999</v>
+      </c>
+      <c r="D78">
+        <v>3416</v>
+      </c>
+      <c r="E78">
+        <v>230</v>
+      </c>
+      <c r="F78">
+        <v>690</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
+      </c>
+      <c r="H78">
+        <v>29</v>
+      </c>
+      <c r="I78">
+        <v>1516.3692307700001</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>5</v>
       </c>
+      <c r="C79">
+        <v>2.2068165779100002</v>
+      </c>
+      <c r="D79">
+        <v>3416</v>
+      </c>
+      <c r="E79">
+        <v>230</v>
+      </c>
+      <c r="F79">
+        <v>690</v>
+      </c>
+      <c r="G79">
+        <v>30</v>
+      </c>
+      <c r="H79">
+        <v>29</v>
+      </c>
+      <c r="I79">
+        <v>1514.0615384600001</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="C80">
+        <v>1.47088060379</v>
+      </c>
+      <c r="D80">
+        <v>3262</v>
+      </c>
+      <c r="E80" s="2">
+        <v>230</v>
+      </c>
+      <c r="F80" s="2">
+        <v>614</v>
+      </c>
+      <c r="G80" s="2">
+        <v>30</v>
+      </c>
+      <c r="H80" s="2">
+        <v>29</v>
+      </c>
+      <c r="I80">
+        <v>1541.5615384600001</v>
+      </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="C81">
+        <v>1.45122661591</v>
+      </c>
+      <c r="D81">
+        <v>3301</v>
+      </c>
+      <c r="E81" s="2">
+        <v>230</v>
+      </c>
+      <c r="F81" s="2">
+        <v>614</v>
+      </c>
+      <c r="G81" s="2">
+        <v>30</v>
+      </c>
+      <c r="H81" s="2">
+        <v>29</v>
+      </c>
+      <c r="I81">
+        <v>1513.3571428600001</v>
+      </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="C82">
+        <v>1.47181739807</v>
+      </c>
+      <c r="D82">
+        <v>3262</v>
+      </c>
+      <c r="E82" s="2">
+        <v>230</v>
+      </c>
+      <c r="F82" s="2">
+        <v>614</v>
+      </c>
+      <c r="G82" s="2">
+        <v>30</v>
+      </c>
+      <c r="H82" s="2">
+        <v>29</v>
+      </c>
+      <c r="I82">
+        <v>1507.67826087</v>
+      </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
